--- a/USA/state/writing/01_national_wavelet_paper/words/98_phenotyping_papers/other_studies.xlsx
+++ b/USA/state/writing/01_national_wavelet_paper/words/98_phenotyping_papers/other_studies.xlsx
@@ -670,7 +670,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
